--- a/Python.xlsx
+++ b/Python.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6449D-8CEF-4777-AFD9-A2079BE903DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
     <sheet name="ACC" sheetId="6" r:id="rId2"/>
     <sheet name="Youtube" sheetId="2" r:id="rId3"/>
-    <sheet name="PY" sheetId="8" r:id="rId4"/>
-    <sheet name="GIT" sheetId="5" r:id="rId5"/>
-    <sheet name="THUVIEN" sheetId="4" r:id="rId6"/>
-    <sheet name="ENG" sheetId="7" r:id="rId7"/>
+    <sheet name="GIT" sheetId="5" r:id="rId4"/>
+    <sheet name="PY" sheetId="4" r:id="rId5"/>
+    <sheet name="ENG" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -300,9 +308,6 @@
     <t>Viết chương trình quản lý bằng arduino và python</t>
   </si>
   <si>
-    <t>đăng ký lần đầu</t>
-  </si>
-  <si>
     <t>git config --global user.name ""</t>
   </si>
   <si>
@@ -346,12 +351,75 @@
   </si>
   <si>
     <t>Interactive Mode - dạng tương tác chạy từng dòng lệnh</t>
+  </si>
+  <si>
+    <t>pandas.pydata.org</t>
+  </si>
+  <si>
+    <t>numpy.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đăng ký lần đầu </t>
+  </si>
+  <si>
+    <t>scipy.org</t>
+  </si>
+  <si>
+    <t>bokeh.org</t>
+  </si>
+  <si>
+    <t>scikit-learn.org</t>
+  </si>
+  <si>
+    <t>tensorflow.org</t>
+  </si>
+  <si>
+    <t>pytorch.org</t>
+  </si>
+  <si>
+    <t>seaborn.pydata.org</t>
+  </si>
+  <si>
+    <t>matplotlib.org</t>
+  </si>
+  <si>
+    <t>keras.io</t>
+  </si>
+  <si>
+    <t>Build ra file .ipa hoặc .apk rồi cài lên đt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build ra file .exe để chạy trên máy tính (cài đặt "pip install pyinstaller" chạy cmd thư mục installer --onefile -w Tên file.py) </t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ứng dụng dự đoán PS </t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu (tự lấy qua VCBS)</t>
+  </si>
+  <si>
+    <t>Phân tích dữ liệu</t>
+  </si>
+  <si>
+    <t>Dự đoán dữ liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phần mềm quản lý sản xuất vớ: 31-7-22 alpha; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +496,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -488,7 +562,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -543,7 +623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -848,86 +934,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -936,16 +1052,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>45</v>
       </c>
@@ -953,7 +1069,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -967,24 +1083,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,200 +1110,423 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
       <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1197,227 +1536,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6449D-8CEF-4777-AFD9-A2079BE903DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="PY" sheetId="4" r:id="rId5"/>
     <sheet name="ENG" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -414,12 +413,21 @@
   </si>
   <si>
     <t xml:space="preserve">Phần mềm quản lý sản xuất vớ: 31-7-22 alpha; </t>
+  </si>
+  <si>
+    <t>cmd - pip freeze (xem những thư viện đã cài)</t>
+  </si>
+  <si>
+    <t>cmd - pip install … (… tên thư viện muốn cài)</t>
+  </si>
+  <si>
+    <t>cmd - pip install -r … (… file chứa danh sách thư viện cần cài - vd: requirements.txt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -934,114 +942,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>125</v>
       </c>
@@ -1052,16 +1060,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>45</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -1083,24 +1091,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,32 +1118,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>49</v>
       </c>
@@ -1146,7 +1154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -1157,37 +1165,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1203,7 +1211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>60</v>
       </c>
@@ -1211,12 +1219,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>62</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1232,7 +1240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>64</v>
       </c>
@@ -1240,12 +1248,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>67</v>
       </c>
@@ -1261,17 +1269,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>70</v>
       </c>
@@ -1283,16 +1291,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1314,7 +1322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1453,12 +1461,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -1466,27 +1474,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -1494,38 +1502,53 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1536,20 +1559,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -1560,7 +1583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>96</v>
       </c>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -422,6 +422,24 @@
   </si>
   <si>
     <t>cmd - pip install -r … (… file chứa danh sách thư viện cần cài - vd: requirements.txt)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3WvrZ9A9Y6g</t>
+  </si>
+  <si>
+    <t>Xuất Project Game Sang APK và Cài lên Điện thoại | Unity Game 2D</t>
+  </si>
+  <si>
+    <t>Android App using Python | Convert .Py to APK | #Kivy Tutorial</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mUdnjNGePZw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B__UOykI0Mo</t>
+  </si>
+  <si>
+    <t>How To Convert Py to Apk In Windows | Kivymd | Py to Apk | Kivy to Apk | Buildozer | Yoo The Best |</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1082,7 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,14 +1565,43 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C34" r:id="rId1"/>
+    <hyperlink ref="C35" r:id="rId2"/>
+    <hyperlink ref="C33" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Six</t>
   </si>
   <si>
-    <t>Tkinter</t>
-  </si>
-  <si>
     <t>Requests</t>
   </si>
   <si>
@@ -440,6 +437,27 @@
   </si>
   <si>
     <t>How To Convert Py to Apk In Windows | Kivymd | Py to Apk | Kivy to Apk | Buildozer | Yoo The Best |</t>
+  </si>
+  <si>
+    <t>tkinter</t>
+  </si>
+  <si>
+    <t>git add README.md</t>
+  </si>
+  <si>
+    <t>git commit -m "first commit"</t>
+  </si>
+  <si>
+    <t>git branch -M main</t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/TrungDaoDEV/test-.git</t>
+  </si>
+  <si>
+    <t>git push -u origin main</t>
+  </si>
+  <si>
+    <t>Create new repository</t>
   </si>
 </sst>
 </file>
@@ -969,107 +987,107 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1082,25 +1100,25 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1144,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,153 +1176,189 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>70</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1312,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1331,13 +1385,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1345,13 +1399,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1359,13 +1413,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1373,13 +1427,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1387,13 +1441,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1401,13 +1455,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1415,13 +1469,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1429,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1437,13 +1491,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1451,10 +1505,10 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1462,10 +1516,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1473,10 +1527,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1489,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1514,10 +1568,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
         <v>100</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1532,66 +1586,66 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
         <v>134</v>
-      </c>
-      <c r="D33" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
         <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1621,24 +1675,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
-        <v>95</v>
-      </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -981,7 +981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1099,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1366,9 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Youtube" sheetId="2" r:id="rId3"/>
     <sheet name="GIT" sheetId="5" r:id="rId4"/>
     <sheet name="PY" sheetId="4" r:id="rId5"/>
-    <sheet name="ENG" sheetId="7" r:id="rId6"/>
+    <sheet name="ARD" sheetId="8" r:id="rId6"/>
+    <sheet name="ENG" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -458,6 +459,21 @@
   </si>
   <si>
     <t>Create new repository</t>
+  </si>
+  <si>
+    <t>Add the following link to the Additional Boards Manager URLs: http://arduino.esp8266.com/stable/package_esp8266com_index.json and press OK button</t>
+  </si>
+  <si>
+    <t>Start Arduino, go to File &gt; Preferences</t>
+  </si>
+  <si>
+    <t>Click Tools &gt; Boards menu &gt; Boards Manager, search for ESP8266 and install ESP8266 platform from ESP8266 community (and don't forget to select your ESP8266 boards from Tools &gt; Boards menu after installation)</t>
+  </si>
+  <si>
+    <t>To install additional ESP8266WiFi library:</t>
+  </si>
+  <si>
+    <t>Click Sketch &gt; Include Library &gt; Manage Libraries, search for ESP8266WiFi and then install with the latest version.</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1661,6 +1677,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>Click Sketch &gt; Include Library &gt; Manage Libraries, search for ESP8266WiFi and then install with the latest version.</t>
+  </si>
+  <si>
+    <t>TaoM2098ne$tr</t>
+  </si>
+  <si>
+    <t>AI</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,6 +1143,14 @@
       </c>
       <c r="C3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>AI</t>
+  </si>
+  <si>
+    <t>Cập nhật dữ liệu giao dịch PS hàng ngày để làm cơ sở phân tích (gồm bản FULL và Khớp lệnh)</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,77 +1043,82 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1123,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>Cập nhật dữ liệu giao dịch PS hàng ngày để làm cơ sở phân tích (gồm bản FULL và Khớp lệnh)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>ghtD2389$rt</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1129,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,6 +1165,14 @@
       </c>
       <c r="C4" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>ghtD2389$rt</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>567%TR*nam2022</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,6 +1179,14 @@
       </c>
       <c r="C5" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -14,6 +14,7 @@
     <sheet name="PY" sheetId="4" r:id="rId5"/>
     <sheet name="ARD" sheetId="8" r:id="rId6"/>
     <sheet name="ENG" sheetId="7" r:id="rId7"/>
+    <sheet name="TKB" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,8 +33,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+trungdao.devappleid</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+paszaloso
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -173,9 +233,6 @@
     <t>git</t>
   </si>
   <si>
-    <t>trungdao.dev -(&amp;2022#hoclaPTRinh$)</t>
-  </si>
-  <si>
     <t>trungdao.dev -(git%%hub%trAin99) -TrungDaoDEV</t>
   </si>
   <si>
@@ -495,13 +552,64 @@
   </si>
   <si>
     <t>567%TR*nam2022</t>
+  </si>
+  <si>
+    <t>https://dientutuonglai.com/</t>
+  </si>
+  <si>
+    <t>Gia công mạch in</t>
+  </si>
+  <si>
+    <t>Nhật ký học tập và làm việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày </t>
+  </si>
+  <si>
+    <t>Giờ làm</t>
+  </si>
+  <si>
+    <t>8h11 - 11h</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Mong muốn</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Hoàn thành truyền nhận dữ liệu từ máy sang chương trình python qua giao thức mqtt</t>
+  </si>
+  <si>
+    <t>Arduino - JSON - TXRX</t>
+  </si>
+  <si>
+    <t>Nên tập trung làm cho xong chương trình này, tạm thời ngưng tốn thời gian vào ttck, còn 30k asm cứ để đó hưởng cổ tức, kệ đi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mfiRJ1qgToc</t>
+  </si>
+  <si>
+    <t>Computer Vision With Arduino | 2 Hour Course | OpenCV Python</t>
+  </si>
+  <si>
+    <t>blynk</t>
+  </si>
+  <si>
+    <t>df^75$23BN</t>
+  </si>
+  <si>
+    <t>trungdao.dev -(&amp;2022#hoclaPTRinh$) forex DM2022$$ dmtd mailmoi12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +624,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -539,9 +660,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1018,120 +1140,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1140,11 +1262,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,7 +1276,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -1162,35 +1284,44 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
         <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
         <v>152</v>
       </c>
-      <c r="C6" t="s">
-        <v>153</v>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1199,7 +1330,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1244,183 +1375,183 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1451,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -1465,10 +1598,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -1479,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -1493,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1507,13 +1640,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1521,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -1535,7 +1668,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -1557,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -1582,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -1593,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
         <v>40</v>
@@ -1634,10 +1767,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
         <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1652,66 +1785,66 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
         <v>133</v>
-      </c>
-      <c r="D33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
         <v>129</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1727,42 +1860,64 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>146</v>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1782,27 +1937,88 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="65.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Python.xlsx
+++ b/Python.xlsx
@@ -599,10 +599,10 @@
     <t>blynk</t>
   </si>
   <si>
-    <t>df^75$23BN</t>
-  </si>
-  <si>
     <t>trungdao.dev -(&amp;2022#hoclaPTRinh$) forex DM2022$$ dmtd mailmoi12345</t>
+  </si>
+  <si>
+    <t>trungdao.dev-df^75$23BN</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1276,7 +1276,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -1316,7 +1316,7 @@
         <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="ARD" sheetId="8" r:id="rId6"/>
     <sheet name="ENG" sheetId="7" r:id="rId7"/>
     <sheet name="TKB" sheetId="9" r:id="rId8"/>
+    <sheet name="HOC" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
   <si>
     <t>https://www.youtube.com/watch?v=6DqMLtd7YIk&amp;list=PLAaOuSGREyM7t8kjTcxz7hx4bmVbdyjuV&amp;index=2</t>
   </si>
@@ -335,30 +336,18 @@
     <t>Nhập liệu hàng ngày</t>
   </si>
   <si>
-    <t>Chuyển giao công việc Xưởng vớ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ứng dụng quản lý sản xuất xưởng vớ, cập nhật và phân tích số liệu </t>
   </si>
   <si>
     <t>Ứng dụng phân tích chứng khoán</t>
   </si>
   <si>
-    <t>Học lập trình python</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phân tích CP để vào lệnh nếu có cơ hội lướt sóng - đánh giá lại khoản mục đầu tư ngoài giờ và đưa chiến lược để thực thi trong giờ </t>
   </si>
   <si>
     <t>Tìm kiếm cơ hội vào PS - ngày 1 -&gt; 3 lệnh (Vào xong rồi thì trong thời gian chờ đợi học code)</t>
   </si>
   <si>
-    <t>Giao dịch chứng khoán Sáng từ 8h45'-11h30' chiều từ 13h-14h45'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiện tại có 2 công việc chính </t>
-  </si>
-  <si>
     <t>Viết chương trình quản lý bằng arduino và python</t>
   </si>
   <si>
@@ -467,9 +456,6 @@
     <t>Dự đoán dữ liệu</t>
   </si>
   <si>
-    <t xml:space="preserve">Phần mềm quản lý sản xuất vớ: 31-7-22 alpha; </t>
-  </si>
-  <si>
     <t>cmd - pip freeze (xem những thư viện đã cài)</t>
   </si>
   <si>
@@ -603,6 +589,63 @@
   </si>
   <si>
     <t>trungdao.dev-df^75$23BN</t>
+  </si>
+  <si>
+    <t>Chuyển giao công việc Xưởng vớ: xem như hoàn thành vào 3-8-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công việc chính yếu trong vòng tháng 8 và 9/2022 phải hoàn thành: </t>
+  </si>
+  <si>
+    <t>Viết chương trình quản lý xưởng sản xuất bằng arduino và python</t>
+  </si>
+  <si>
+    <t>Học lập trình python: tháng 7-22</t>
+  </si>
+  <si>
+    <t>Giao dịch chứng khoán Sáng từ 8h45'-11h30' chiều từ 13h-14h45': tháng 7/22</t>
+  </si>
+  <si>
+    <t>Học lập trình nhúng arduino để phục vụ cho việc áp đụng IOT vào cuộc sống và cải tiến công việc</t>
+  </si>
+  <si>
+    <t>Truyền nhận giữa 2 hoặc nhiều board Arduino (giao tiếp uart, wire,...)</t>
+  </si>
+  <si>
+    <t>Wifi (mqtt, web socket,...)</t>
+  </si>
+  <si>
+    <t>Tín hiệu đầu vào để phân tích và ứng dụng: điện, cảm biến,…</t>
+  </si>
+  <si>
+    <t>Tín hiệu điều khiển thiết bị</t>
+  </si>
+  <si>
+    <t>2-8-22: thay đổi trong học tập và làm việc, nên chia lại lịch học tập và làm việc khoa học và hiệu quả hơn; Hiện tại có 2 công việc chính 10-7-22</t>
+  </si>
+  <si>
+    <t>Phần mềm quản lý sản xuất vớ: 31-7-22 alpha; =&gt; không thực hiện được bước này, ít nhất phải 2 tuần giữa tháng 8-22 thì mới mong lên build đc và còn rất nhiều việc phải làm để có thể hoạt động đúng ý được, let's do it</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P60kcSaeFmg&amp;list=PL5uqQAwS_KDjAgLGiaCakwJV1f4vRnTLS</t>
+  </si>
+  <si>
+    <t>https://khoapham.vn/nodejs-socketio-xay-dung-web-realtime.html</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Trường khoapham dạy nhiều ngôn ngữ</t>
+  </si>
+  <si>
+    <t>ghi chú</t>
+  </si>
+  <si>
+    <t>nodejs socketio web realtime</t>
+  </si>
+  <si>
+    <t>chọn tốc độ 1,5; cách giảng dễ hiểu có giải thích rõ ràng</t>
   </si>
 </sst>
 </file>
@@ -660,10 +703,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1138,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,102 +1202,137 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
-        <v>78</v>
+      <c r="C14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>88</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>117</v>
+      <c r="D17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>119</v>
+      <c r="D18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>120</v>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>118</v>
+      <c r="D22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
-        <v>123</v>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1265,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1276,7 +1355,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
@@ -1289,34 +1368,34 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1407,22 +1486,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1521,7 +1600,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1531,27 +1610,27 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -1598,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -1612,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -1626,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1640,13 +1719,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1654,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -1668,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -1690,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -1715,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -1726,7 +1805,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
         <v>40</v>
@@ -1767,10 +1846,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1785,66 +1864,66 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1873,43 +1952,43 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1937,24 +2016,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1966,9 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1980,24 +2057,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2005,20 +2082,81 @@
         <v>44769</v>
       </c>
       <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>